--- a/biology/Zoologie/Amphipyra/Amphipyra.xlsx
+++ b/biology/Zoologie/Amphipyra/Amphipyra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphipyra est un genre de lépidoptères nocturnes de la famille des Noctuidae, sous-famille des Amphipyrinae et de la tribu des Amphipyrini.
 </t>
@@ -511,48 +523,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par l'entomologiste allemand Ferdinand Ochsenheimer, en 1816[1].
-Synonymie
-Pyrois Hübner, 1820[2]
-Scotophila Hübner, [1821]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par l'entomologiste allemand Ferdinand Ochsenheimer, en 1816.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amphipyra</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphipyra</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pyrois Hübner, 1820
+Scotophila Hübner, 
 Pyrophila Stephens, 1829
 Philopyra Guenée, 1837
 Neocomia Rougemont, 1905
 Peripyra Hampson, 1908
-Pyramidcampa Beck, 1991 [3]
-Adamphipyra Beck, 1991[4]
-Tetrapyra Beck, 1991[4]
-Antiamphipyra Beck, 1991[5]</t>
+Pyramidcampa Beck, 1991 
+Adamphipyra Beck, 1991
+Tetrapyra Beck, 1991
+Antiamphipyra Beck, 1991</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Amphipyra</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Amphipyra</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amphipyra berbera Rungs, 1949
 Amphipyra livida (Denis &amp; Schiffermüller, 1775)
